--- a/markdown_generator/publications.xlsx
+++ b/markdown_generator/publications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\yannik\yblei.github.io\markdown_generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FAED35-19E9-4FEF-8B75-33B2AA749EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DBF3B9-4ADD-44DC-B19D-2C9062AB891E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{5DEEBD5F-D318-40E3-BCEE-FEB4EEB67B08}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExterneDaten_1" localSheetId="0" hidden="1">publications!$A$1:$G$5</definedName>
+    <definedName name="ExterneDaten_1" localSheetId="0" hidden="1">publications!$A$1:$G$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>pub_date</t>
   </si>
@@ -69,54 +69,6 @@
     <t>paper_url</t>
   </si>
   <si>
-    <t>Paper Title Number 1</t>
-  </si>
-  <si>
-    <t>Journal 1</t>
-  </si>
-  <si>
-    <t>This paper is about the number 1. The number 2 is left for future work.</t>
-  </si>
-  <si>
-    <t>Your Name, You. (2009). "Paper Title Number 1." &lt;i&gt;Journal 1&lt;/i&gt;. 1(1).</t>
-  </si>
-  <si>
-    <t>paper-title-number-1</t>
-  </si>
-  <si>
-    <t>http://academicpages.github.io/files/paper1.pdf</t>
-  </si>
-  <si>
-    <t>Paper Title Number 2</t>
-  </si>
-  <si>
-    <t>This paper is about the number 2. The number 3 is left for future work.</t>
-  </si>
-  <si>
-    <t>Your Name, You. (2010). "Paper Title Number 2." &lt;i&gt;Journal 1&lt;/i&gt;. 1(2).</t>
-  </si>
-  <si>
-    <t>paper-title-number-2</t>
-  </si>
-  <si>
-    <t>http://academicpages.github.io/files/paper2.pdf</t>
-  </si>
-  <si>
-    <t>Paper Title Number 3</t>
-  </si>
-  <si>
-    <t>This paper is about the number 3. The number 4 is left for future work.</t>
-  </si>
-  <si>
-    <t>Your Name, You. (2015). "Paper Title Number 3." &lt;i&gt;Journal 1&lt;/i&gt;. 1(3).</t>
-  </si>
-  <si>
-    <t>paper-title-number-3</t>
-  </si>
-  <si>
-    <t>http://academicpages.github.io/files/paper3.pdf</t>
-  </si>
-  <si>
     <t>Identifying Out-of-Distribution Samples in Real-Time for Safety-Critical 2D Object Detection with Margin Entropy Loss</t>
   </si>
   <si>
@@ -133,6 +85,24 @@
   </si>
   <si>
     <t>ma_loss</t>
+  </si>
+  <si>
+    <t>LAN-grasp: Using Large Language Models for Semantic Object Grasping</t>
+  </si>
+  <si>
+    <t>arXiv</t>
+  </si>
+  <si>
+    <t>In this paper, we propose LAN-grasp, a novel approach towards more appropriate semantic grasping. We use foundation models to provide the robot with a deeper understanding of the objects, the right place to grasp an object, or even the parts to avoid. This allows our robot to grasp and utilize objects in a more meaningful and safe manner. We leverage the combination of a Large Language Model, a Vision Language Model, and a traditional grasp planner to generate grasps demonstrating a deeper semantic understanding of the objects. We first prompt the Large Language Model about which object part is appropriate for grasping. Next, the Vision Language Model identifies the corresponding part in the object image. Finally, we generate grasp proposals in the region proposed by the Vision Language Model.</t>
+  </si>
+  <si>
+    <t>Reihaneh Mirjalili, Michael Krawez, Simone Silenzi, Yannik Blei, and Wolfram Burgard. Lan-grasp: Using large language models for semantic object grasping. arXiv preprint arXiv:2310.05239, 2023</t>
+  </si>
+  <si>
+    <t>lan_grasp</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2311.17776.pdf</t>
   </si>
 </sst>
 </file>
@@ -177,12 +147,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -555,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375A052C-5DAC-45E8-9966-0A7586F0A04A}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,7 +568,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>40087</v>
+        <v>44805</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
@@ -603,87 +576,50 @@
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>40452</v>
-      </c>
-      <c r="B3" s="2" t="s">
+        <v>45207</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" t="s">
         <v>15</v>
       </c>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="F3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>42278</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>44805</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>

--- a/markdown_generator/publications.xlsx
+++ b/markdown_generator/publications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\yannik\yblei.github.io\markdown_generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DBF3B9-4ADD-44DC-B19D-2C9062AB891E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D15C89-4176-45FD-BEAF-CFA53EB310CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{5DEEBD5F-D318-40E3-BCEE-FEB4EEB67B08}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5DEEBD5F-D318-40E3-BCEE-FEB4EEB67B08}"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="2" r:id="rId1"/>
@@ -72,9 +72,6 @@
     <t>Identifying Out-of-Distribution Samples in Real-Time for Safety-Critical 2D Object Detection with Margin Entropy Loss</t>
   </si>
   <si>
-    <t>ECCV UNCV Workshop 2022 - Extended Abstract</t>
-  </si>
-  <si>
     <t>Convolutional Neural Networks (CNNs) are nowadays often employed in vision-based perception stacks for safetycritical applications such as autonomous driving or Unmanned Aerial Vehicles (UAVs). Due to the safety requirements in those use cases, it is important to know the limitations of the CNN and, thus, to detect Out-of-Distribution (OOD) samples. In this work, we present an approach to enable OOD detection for 2D object detection by employing the margin entropy (ME) loss.</t>
   </si>
   <si>
@@ -103,6 +100,9 @@
   </si>
   <si>
     <t>https://arxiv.org/pdf/2311.17776.pdf</t>
+  </si>
+  <si>
+    <t>ECCV UNCV Workshop</t>
   </si>
 </sst>
 </file>
@@ -529,7 +529,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,19 +574,19 @@
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -594,22 +594,22 @@
         <v>45207</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">

--- a/markdown_generator/publications.xlsx
+++ b/markdown_generator/publications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\yannik\yblei.github.io\markdown_generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D15C89-4176-45FD-BEAF-CFA53EB310CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF0012D-1848-441B-9661-0513E8DA64D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5DEEBD5F-D318-40E3-BCEE-FEB4EEB67B08}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{5DEEBD5F-D318-40E3-BCEE-FEB4EEB67B08}"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="2" r:id="rId1"/>
@@ -75,9 +75,6 @@
     <t>Convolutional Neural Networks (CNNs) are nowadays often employed in vision-based perception stacks for safetycritical applications such as autonomous driving or Unmanned Aerial Vehicles (UAVs). Due to the safety requirements in those use cases, it is important to know the limitations of the CNN and, thus, to detect Out-of-Distribution (OOD) samples. In this work, we present an approach to enable OOD detection for 2D object detection by employing the margin entropy (ME) loss.</t>
   </si>
   <si>
-    <t>Yannik Blei, Nicolas Jourdan, and Nils Gahlert. ¨ Identifying Out-of-Distribution Samples in Real-Time for Safety-Critical 2D Object Detection with Margin Entropy Loss. arXiv:2209.00364 [cs]. Sept. 2022</t>
-  </si>
-  <si>
     <t>https://arxiv.org/pdf/2209.00364.pdf</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
     <t>In this paper, we propose LAN-grasp, a novel approach towards more appropriate semantic grasping. We use foundation models to provide the robot with a deeper understanding of the objects, the right place to grasp an object, or even the parts to avoid. This allows our robot to grasp and utilize objects in a more meaningful and safe manner. We leverage the combination of a Large Language Model, a Vision Language Model, and a traditional grasp planner to generate grasps demonstrating a deeper semantic understanding of the objects. We first prompt the Large Language Model about which object part is appropriate for grasping. Next, the Vision Language Model identifies the corresponding part in the object image. Finally, we generate grasp proposals in the region proposed by the Vision Language Model.</t>
   </si>
   <si>
-    <t>Reihaneh Mirjalili, Michael Krawez, Simone Silenzi, Yannik Blei, and Wolfram Burgard. Lan-grasp: Using large language models for semantic object grasping. arXiv preprint arXiv:2310.05239, 2023</t>
-  </si>
-  <si>
     <t>lan_grasp</t>
   </si>
   <si>
@@ -103,6 +97,12 @@
   </si>
   <si>
     <t>ECCV UNCV Workshop</t>
+  </si>
+  <si>
+    <t>Yannik Blei, Nicolas Jourdan, and Nils Gahlert. Identifying Out-of-Distribution Samples in Real-Time for Safety-Critical 2D Object Detection with Margin Entropy Loss. arXiv:2209.00364 [cs]. Sept. 2022</t>
+  </si>
+  <si>
+    <t>Reihaneh Mirjalili, Michael Krawez, Simone Silenzi, Yannik Blei, and Wolfram Burgard. Lan-grasp: Using large language models for semantic object grasping. arXiv preprint arXiv:2310.05239, Oct 2023</t>
   </si>
 </sst>
 </file>
@@ -528,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375A052C-5DAC-45E8-9966-0A7586F0A04A}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,19 +574,19 @@
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -594,22 +594,22 @@
         <v>45207</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="G3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">

--- a/markdown_generator/publications.xlsx
+++ b/markdown_generator/publications.xlsx
@@ -68,7 +68,7 @@
     <t>In this paper, we propose LAN-grasp, a novel approach towards more appropriate semantic grasping. We use foundation models to provide the robot with a deeper understanding of the objects, the right place to grasp an object, or even the parts to avoid. This allows our robot to grasp and utilize objects in a more meaningful and safe manner. We leverage the combination of a Large Language Model, a Vision Language Model, and a traditional grasp planner to generate grasps demonstrating a deeper semantic understanding of the objects. We first prompt the Large Language Model about which object part is appropriate for grasping. Next, the Vision Language Model identifies the corresponding part in the object image. Finally, we generate grasp proposals in the region proposed by the Vision Language Model.</t>
   </si>
   <si>
-    <t>Reihaneh Mirjalili, Michael Krawez, Simone Silenzi, Yannik Blei, and Wolfram Burgard. Lan-grasp: Using large language models for semantic object grasping. arXiv preprint arXiv:2310.05239, Oct 2023</t>
+    <t>Reihaneh Mirjalili, Michael Krawez, Simone Silenzi, Yannik Blei, and Wolfram Burgard. Lan-grasp: Using large language models for semantic object grasping. arXiv:2310.05239, Oct 2023</t>
   </si>
   <si>
     <t>lan_grasp</t>
@@ -89,7 +89,7 @@
     <t xml:space="preserve">Nowadays, unmanned aerial vehicles (UAVs) are commonly used in search and rescue scenarios to gather information in the search area. The automatic identification of the person searched for in aerial footage could increase the autonomy of such systems, reduce the search time, and thus increase the missed person's chances of survival. In this paper, we present a novel approach to perform semantically conditioned open vocabulary object tracking that is specifically designed to cope with the limitations of UAV hardware. Our approach has several advantages. It can run with verbal descriptions of the missing person, e.g., the color of the shirt, it does not require dedicated training to execute the mission and can efficiently track a potentially moving person. Our experimental results demonstrate the versatility and efficacy of our approach. We will make the source code of our approach available upon publication of this manuscript. </t>
   </si>
   <si>
-    <t>Yannik Blei, Michael Krawez, Nisarga Nilavadi, Tanja Katharina Kaiser and Wolfram Burgard</t>
+    <t>Yannik Blei, Michael Krawez, Nisarga Nilavadi, Tanja Katharina Kaiser and Wolfram Burgard. CloudTrack: Scalable UAV Tracking with Cloud Semantics. arXiv:2409.16111, Oct 2024</t>
   </si>
   <si>
     <t>cloud_track</t>
@@ -103,7 +103,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,12 +114,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -158,15 +152,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -175,7 +166,7 @@
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -508,13 +499,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="64.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="86.14785714285713" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="20.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="45.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="64.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="86.14785714285713" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="20.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="45.14785714285715" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -524,19 +515,19 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -547,19 +538,19 @@
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -570,57 +561,57 @@
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="181.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="195">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5" customFormat="1" s="4">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5" customFormat="1" s="3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>

--- a/markdown_generator/publications.xlsx
+++ b/markdown_generator/publications.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>pub_date</t>
   </si>
@@ -83,19 +83,55 @@
     <t>CloudTrack: Scalable UAV Tracking with Cloud Semantics</t>
   </si>
   <si>
+    <t>ICRA</t>
+  </si>
+  <si>
+    <t>Nowadays, unmanned aerial vehicles (UAVs) are commonly used in search and rescue scenarios to gather information in the search area. The automatic identification of the person searched for in aerial footage could increase the autonomy of such systems, reduce the search time, and thus increase the missed person's chances of survival. In this paper, we present a novel approach to perform semantically conditioned open vocabulary object tracking that is specifically designed to cope with the limitations of UAV hardware. Our approach has several advantages. It can run with verbal descriptions of the missing person, e.g., the color of the shirt, it does not require dedicated training to execute the mission and can efficiently track a potentially moving person. Our experimental results demonstrate the versatility and efficacy of our approach. We publish the methods source code at https://github.com/yblei/CloudTrack.</t>
+  </si>
+  <si>
+    <t>Yannik Blei, Michael Krawez, Nisarga Nilavadi, Tanja Katharina Kaiser and Wolfram Burgard. CloudTrack: Scalable UAV Tracking with Cloud Semantics. arXiv:2409.16111, Oct 2024</t>
+  </si>
+  <si>
+    <t>cloud_track</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2409.16111</t>
+  </si>
+  <si>
+    <t>LLM-Pack: Intuitive Grocery Handling for Logistics Applications</t>
+  </si>
+  <si>
     <t>arxiv</t>
   </si>
   <si>
-    <t xml:space="preserve">Nowadays, unmanned aerial vehicles (UAVs) are commonly used in search and rescue scenarios to gather information in the search area. The automatic identification of the person searched for in aerial footage could increase the autonomy of such systems, reduce the search time, and thus increase the missed person's chances of survival. In this paper, we present a novel approach to perform semantically conditioned open vocabulary object tracking that is specifically designed to cope with the limitations of UAV hardware. Our approach has several advantages. It can run with verbal descriptions of the missing person, e.g., the color of the shirt, it does not require dedicated training to execute the mission and can efficiently track a potentially moving person. Our experimental results demonstrate the versatility and efficacy of our approach. We will make the source code of our approach available upon publication of this manuscript. </t>
-  </si>
-  <si>
-    <t>Yannik Blei, Michael Krawez, Nisarga Nilavadi, Tanja Katharina Kaiser and Wolfram Burgard. CloudTrack: Scalable UAV Tracking with Cloud Semantics. arXiv:2409.16111, Oct 2024</t>
-  </si>
-  <si>
-    <t>cloud_track</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/pdf/2409.16111</t>
+    <t>Robotics and automation are increasingly influential in logistics but remain largely confined to traditional
+warehouses. In grocery retail, advancements such as cashier-less
+supermarkets exist, yet customers still manually pick and pack
+groceries. While there has been a substantial focus in robotics
+on the bin picking problem, the task of packing objects and
+groceries has remained largely untouched. However, packing
+grocery items in the right order is crucial for preventing
+product damage, e.g., heavy objects should not be placed on
+top of fragile ones. However, the exact criteria for the right
+packing order are hard to define, in particular given the huge
+variety of objects typically found in stores. In this paper, we
+introduce LLM-Pack, a novel approach for grocery packing.
+LLM-Pack leverages language and vision foundation models
+for identifying groceries and generating a packing sequence
+that mimics human packing strategy. LLM-Pack does not
+require dedicated training to handle new grocery items and its
+modularity allows easy upgrades of the underlying foundation
+models. We extensively evaluate our approach to demonstrate
+its performance. We will make the source code of LLMPack publicly available upon the publication of this manuscript.</t>
+  </si>
+  <si>
+    <t>Yannik Blei, Michael Krawez, Tobias Jülg, Pierre Krack, Florian Walter and Wolfram Burgard</t>
+  </si>
+  <si>
+    <t>llm_pack</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2503.08445</t>
   </si>
 </sst>
 </file>
@@ -508,7 +544,7 @@
     <col min="7" max="7" style="7" width="45.14785714285715" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,7 +567,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="100.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="95.25">
       <c r="A2" s="1">
         <v>44805</v>
       </c>
@@ -554,7 +590,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="168">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="159">
       <c r="A3" s="1">
         <v>45207</v>
       </c>
@@ -577,7 +613,7 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="195">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="184.5">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -600,16 +636,30 @@
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="273.75">
+      <c r="A5" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="3">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="2"/>

--- a/markdown_generator/publications.xlsx
+++ b/markdown_generator/publications.xlsx
@@ -125,7 +125,7 @@
 its performance. We will make the source code of LLMPack publicly available upon the publication of this manuscript.</t>
   </si>
   <si>
-    <t>Yannik Blei, Michael Krawez, Tobias Jülg, Pierre Krack, Florian Walter and Wolfram Burgard</t>
+    <t>Yannik Blei, Michael Krawez, Tobias Jülg, Pierre Krack, Florian Walter and Wolfram Burgard. LLM-Pack: Intuitive Grocery Handling for Logistics Applications. arXiv:2503.08445, Mar 2025</t>
   </si>
   <si>
     <t>llm_pack</t>
@@ -613,7 +613,7 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="184.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="171.75">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>

--- a/markdown_generator/publications.xlsx
+++ b/markdown_generator/publications.xlsx
@@ -77,7 +77,7 @@
     <t>https://arxiv.org/pdf/2311.17776.pdf</t>
   </si>
   <si>
-    <t>25-9-2024</t>
+    <t>25-04-2025</t>
   </si>
   <si>
     <t>CloudTrack: Scalable UAV Tracking with Cloud Semantics</t>

--- a/markdown_generator/publications.xlsx
+++ b/markdown_generator/publications.xlsx
@@ -89,7 +89,7 @@
     <t>Nowadays, unmanned aerial vehicles (UAVs) are commonly used in search and rescue scenarios to gather information in the search area. The automatic identification of the person searched for in aerial footage could increase the autonomy of such systems, reduce the search time, and thus increase the missed person's chances of survival. In this paper, we present a novel approach to perform semantically conditioned open vocabulary object tracking that is specifically designed to cope with the limitations of UAV hardware. Our approach has several advantages. It can run with verbal descriptions of the missing person, e.g., the color of the shirt, it does not require dedicated training to execute the mission and can efficiently track a potentially moving person. Our experimental results demonstrate the versatility and efficacy of our approach. We publish the methods source code at https://github.com/yblei/CloudTrack.</t>
   </si>
   <si>
-    <t>Yannik Blei, Michael Krawez, Nisarga Nilavadi, Tanja Katharina Kaiser and Wolfram Burgard. CloudTrack: Scalable UAV Tracking with Cloud Semantics. arXiv:2409.16111, Oct 2024</t>
+    <t>Yannik Blei, Michael Krawez, Nisarga Nilavadi, Tanja Katharina Kaiser and Wolfram Burgard. CloudTrack: Scalable UAV Tracking with Cloud Semantics. Accepted to ICRA, Mai 2025</t>
   </si>
   <si>
     <t>cloud_track</t>
